--- a/AAII_Financials/Quarterly/HLTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLTY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2669,16 +2669,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -2713,16 +2713,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
